--- a/src/main/webapp/template/xls/batchImportDealInfo.xlsx
+++ b/src/main/webapp/template/xls/batchImportDealInfo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24840" windowHeight="15540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22335" windowHeight="5910"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,8 @@
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>产品名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -160,26 +161,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>富力城</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>企业证书</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>专用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>统一标准</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>付款信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -188,19 +169,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1108第一张</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>123@qq.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>支付类型(现金、POS付款、财务支付)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>现金</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -650,8 +619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12:V12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -725,7 +694,7 @@
       <c r="AD1" s="9"/>
       <c r="AE1" s="9"/>
       <c r="AF1" s="10" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="AG1" s="9"/>
     </row>
@@ -782,7 +751,7 @@
         <v>21</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="S2" s="6" t="s">
         <v>22</v>
@@ -824,37 +793,14 @@
         <v>33</v>
       </c>
       <c r="AF2" s="6" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="AG2" s="6" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y3" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="AF3" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="Y3" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -865,11 +811,8 @@
     <mergeCell ref="AF1:AG1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="Y3" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/src/main/webapp/template/xls/batchImportDealInfo.xlsx
+++ b/src/main/webapp/template/xls/batchImportDealInfo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22335" windowHeight="5910"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22275" windowHeight="8880"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>产品名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -158,18 +158,6 @@
   </si>
   <si>
     <t>经办人邮箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>付款信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>付款单位名称(当选择财务支付时填写)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>支付类型(现金、POS付款、财务支付)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -256,7 +244,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -279,9 +267,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -619,8 +604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="AC11" sqref="AC11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -649,8 +634,6 @@
     <col min="29" max="29" width="14" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="11.375" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="14" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="44.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="45.75" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="22.5" x14ac:dyDescent="0.15">
@@ -693,10 +676,6 @@
       </c>
       <c r="AD1" s="9"/>
       <c r="AE1" s="9"/>
-      <c r="AF1" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="AG1" s="9"/>
     </row>
     <row r="2" spans="1:33" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -751,7 +730,7 @@
         <v>21</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="S2" s="6" t="s">
         <v>22</v>
@@ -791,24 +770,17 @@
       </c>
       <c r="AE2" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="AF2" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="AG2" s="6" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.15">
       <c r="Y3" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="F1:U1"/>
     <mergeCell ref="V1:AB1"/>
     <mergeCell ref="AC1:AE1"/>
-    <mergeCell ref="AF1:AG1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/webapp/template/xls/batchImportDealInfo.xlsx
+++ b/src/main/webapp/template/xls/batchImportDealInfo.xlsx
@@ -23,11 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
-  <si>
-    <t>产品名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>单位名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -37,10 +33,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>基本信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>单位信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -50,22 +42,6 @@
   </si>
   <si>
     <t>经办人信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>应用名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>应用标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计费策略模板名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请年限</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -169,7 +145,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,13 +158,6 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -242,9 +211,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -255,18 +224,15 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -604,183 +570,156 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
-      <selection activeCell="AC11" sqref="AC11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="11.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="11.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="4.125" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="21.875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="4.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
       <c r="R1" s="8"/>
       <c r="S1" s="8"/>
       <c r="T1" s="8"/>
       <c r="U1" s="8"/>
-      <c r="V1" s="9" t="s">
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="8"/>
+    </row>
+    <row r="2" spans="1:33" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W1" s="9"/>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="9"/>
-      <c r="Z1" s="9"/>
-      <c r="AA1" s="9"/>
-      <c r="AB1" s="9"/>
-      <c r="AC1" s="9" t="s">
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AD1" s="9"/>
-      <c r="AE1" s="9"/>
-    </row>
-    <row r="2" spans="1:33" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="G2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="H2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="V2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="S2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="T2" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="U2" s="6" t="s">
+      <c r="W2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="V2" s="6" t="s">
+      <c r="X2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="W2" s="6" t="s">
+      <c r="Y2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="X2" s="6" t="s">
+      <c r="Z2" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="Y2" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z2" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC2" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="AD2" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="AE2" s="6" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.15">
-      <c r="Y3" s="7"/>
+      <c r="T3" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:U1"/>
-    <mergeCell ref="V1:AB1"/>
-    <mergeCell ref="AC1:AE1"/>
+  <mergeCells count="3">
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="X1:Z1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/webapp/template/xls/batchImportDealInfo.xlsx
+++ b/src/main/webapp/template/xls/batchImportDealInfo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22275" windowHeight="8880"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20556" windowHeight="7764"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -213,28 +213,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -571,149 +566,149 @@
   <dimension ref="A1:AG3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="11.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="4.125" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21.875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="4.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="11.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="19.21875" style="5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.21875" style="5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14" style="5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:33" ht="22.2" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="8" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
-      <c r="X1" s="8" t="s">
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="Y1" s="8"/>
-      <c r="Z1" s="8"/>
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="6"/>
     </row>
-    <row r="2" spans="1:33" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:33" s="3" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="O2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="P2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="Q2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="R2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="S2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="T2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="U2" s="5" t="s">
+      <c r="U2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="V2" s="5" t="s">
+      <c r="V2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="W2" s="5" t="s">
+      <c r="W2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="X2" s="5" t="s">
+      <c r="X2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Y2" s="5" t="s">
+      <c r="Y2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="Z2" s="5" t="s">
+      <c r="Z2" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.15">
-      <c r="T3" s="6"/>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="T3" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="3">
